--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1891697-C7B2-4AF9-AF45-1207A64ED2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16840907-D1AC-473D-861F-03C09B2EFB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,7 +793,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16840907-D1AC-473D-861F-03C09B2EFB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3390FAD-EF21-4DDB-A6C0-189F4B88F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>对话id</t>
   </si>
@@ -183,6 +183,25 @@
   </si>
   <si>
     <t>非常得新鲜，非常得美味</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你跑出来了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>但是，代价是什么呢？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +245,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,13 +301,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J15" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J15" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:J19" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -790,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -922,7 +951,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A15" si="0">A4+1</f>
+        <f t="shared" ref="A5:A19" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
@@ -1013,7 +1042,8 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
+        <f>A11</f>
         <v>9</v>
       </c>
       <c r="G8" s="5" t="str">
@@ -1041,7 +1071,8 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
+        <f>A14</f>
         <v>12</v>
       </c>
       <c r="G9" s="5" t="str">
@@ -1069,7 +1100,8 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
+        <f>A12</f>
         <v>10</v>
       </c>
       <c r="G10" s="5" t="str">
@@ -1098,8 +1130,9 @@
         <v>29</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11">
-        <v>13</v>
+      <c r="F11" s="2">
+        <f>A19</f>
+        <v>17</v>
       </c>
       <c r="G11" s="5" t="str">
         <f>IF(NOT(ISBLANK(F11)),VLOOKUP(F11,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
@@ -1163,8 +1196,9 @@
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13">
-        <v>13</v>
+      <c r="F13" s="2">
+        <f>A19</f>
+        <v>17</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>IF(NOT(ISBLANK(F13)),VLOOKUP(F13,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
@@ -1212,28 +1246,144 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="e">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-1</v>
-      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="5" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v>Escape</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5" t="str">
+        <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v>Escape</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>旁白</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="str">
+        <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>旁白</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5" t="str">
+        <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I19" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v>End</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3390FAD-EF21-4DDB-A6C0-189F4B88F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3077523E-D6BF-44CC-BB1B-3F16B022B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,14 +301,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -822,7 +821,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1245,6 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
       <c r="C15" s="5" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -1255,12 +1253,11 @@
       <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6"/>
       <c r="G15" s="5" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="str">
@@ -1276,7 +1273,6 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
       <c r="C16" s="5" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -1285,12 +1281,15 @@
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="2">
+        <f>A19</f>
+        <v>17</v>
+      </c>
       <c r="G16" s="5" t="str">
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H16" s="6">
+        <v>结束</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="str">
@@ -1306,7 +1305,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="5" t="str">
@@ -1317,12 +1316,10 @@
         <v>31</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
       <c r="G17" s="5" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H17" s="6"/>
       <c r="I17" s="5" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
@@ -1334,23 +1331,21 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
       <c r="G18" s="5" t="str">
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H18" s="6"/>
       <c r="I18" s="5" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr updateLinks="always"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3077523E-D6BF-44CC-BB1B-3F16B022B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zhuang zhong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,9 +77,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="dialogueRule" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="dialogueRule" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
@@ -96,6 +90,9 @@
     <t>对话id</t>
   </si>
   <si>
+    <t>发言人id</t>
+  </si>
+  <si>
     <t>发言者姓名</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
     <t>跳转预览</t>
   </si>
   <si>
+    <t>function</t>
+  </si>
+  <si>
     <t>函数预览</t>
   </si>
   <si>
@@ -144,6 +144,9 @@
     <t>不吃</t>
   </si>
   <si>
+    <t>非常得新鲜，非常得美味</t>
+  </si>
+  <si>
     <t>1919810</t>
   </si>
   <si>
@@ -159,6 +162,21 @@
     <t>114,514</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>你跑出来了</t>
+  </si>
+  <si>
+    <t>但是，代价是什么呢？</t>
+  </si>
+  <si>
     <t>结束</t>
   </si>
   <si>
@@ -172,44 +190,19 @@
   </si>
   <si>
     <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\testingDialogue.xml</t>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发言人id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常得新鲜，非常得美味</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你跑出来了</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>但是，代价是什么呢？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +222,150 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,22 +379,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +393,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,25 +597,296 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -338,9 +912,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,17 +941,14 @@
     </xsd:schema>
   </Schema>
   <Map ID="8" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="characters"/>
       <sheetName val="config"/>
@@ -451,11 +1019,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="functions"/>
       <sheetName val="config"/>
@@ -510,38 +1075,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J19" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:J19"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id">
-      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+    <tableColumn id="4" name="对话id" uniqueName="id">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="5">
+    <tableColumn id="1" name="发言人id" uniqueName="speakerId" dataDxfId="0">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="4">
-      <calculatedColumnFormula>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
+    <tableColumn id="2" name="发言者姓名" uniqueName="3" dataDxfId="1"/>
+    <tableColumn id="3" name="对话内容" uniqueName="content">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型">
+    <tableColumn id="5" name="类型" uniqueName="type">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
+    <tableColumn id="6" name="跳转对话id" uniqueName="jumpTo" dataDxfId="2">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
+    <tableColumn id="7" name="跳转预览" uniqueName="7" dataDxfId="3"/>
+    <tableColumn id="8" name="function" uniqueName="function" dataDxfId="4">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
+    <tableColumn id="9" name="函数预览" uniqueName="9" dataDxfId="5"/>
+    <tableColumn id="10" name="参数" uniqueName="params">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -550,11 +1108,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表8" displayName="表8" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="映射名称"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="映射路径"/>
+    <tableColumn id="1" name="映射名称"/>
+    <tableColumn id="2" name="映射路径"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,66 +1370,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="83.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" customWidth="1"/>
+    <col min="4" max="4" width="83.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="6.91666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="19.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="8.16666666666667" customWidth="1"/>
+    <col min="11" max="11" width="7.91666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -883,20 +1441,20 @@
         <v>旁白</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="4" t="str">
         <f>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I2" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>1</v>
@@ -909,20 +1467,20 @@
         <v>田所浩二</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5" t="str">
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -935,20 +1493,20 @@
         <v>田所浩二</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5" t="str">
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I4" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A19" si="0">A4+1</f>
         <v>3</v>
@@ -961,20 +1519,20 @@
         <v>记者</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I5" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -987,20 +1545,20 @@
         <v>田所浩二</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5" t="str">
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I6" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1013,20 +1571,20 @@
         <v>记者</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5" t="str">
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I7" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1036,7 +1594,7 @@
         <v>#N/A</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1051,11 +1609,11 @@
       </c>
       <c r="I8" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1065,7 +1623,7 @@
         <v>#N/A</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1080,11 +1638,11 @@
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1094,7 +1652,7 @@
         <v>#N/A</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1109,11 +1667,11 @@
       </c>
       <c r="I10" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1126,7 +1684,7 @@
         <v>你</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -1145,10 +1703,10 @@
         <v>Escape</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1161,12 +1719,12 @@
         <v>田所浩二</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2"/>
       <c r="G12" s="5" t="str">
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1176,10 +1734,10 @@
         <v>Jue</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1192,7 +1750,7 @@
         <v>你</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -1205,11 +1763,11 @@
       </c>
       <c r="I13" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1222,12 +1780,12 @@
         <v>你</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="5" t="str">
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1237,10 +1795,10 @@
         <v>Jue</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1251,11 +1809,11 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1265,10 +1823,10 @@
         <v>Escape</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1279,7 +1837,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2">
         <f>A19</f>
@@ -1297,10 +1855,10 @@
         <v>Escape</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1313,20 +1871,20 @@
         <v>旁白</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="5" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I17" s="5" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1339,20 +1897,20 @@
         <v>旁白</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="5" t="str">
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="I18" s="5" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1362,14 +1920,14 @@
         <v>#N/A</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v> </v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1381,9 +1939,9 @@
       <c r="J19" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1392,37 +1950,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="95.83203125" customWidth="1"/>
+    <col min="2" max="2" width="95.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr updateLinks="always" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABECBED5-3B18-4EEF-9470-66DFC7075906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zhuang zhong</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,9 +83,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="dialogueRule" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="dialogueRule" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Sheets\mappings\dialogueRule.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -117,21 +123,12 @@
     <t>参数</t>
   </si>
   <si>
-    <t>野兽先辈的会员制餐厅，就是你的所在之处了</t>
-  </si>
-  <si>
-    <t>压力马斯内</t>
-  </si>
-  <si>
     <t>24岁，事学生</t>
   </si>
   <si>
     <t>你是一个一个一个正在编程的学生啊啊啊啊</t>
   </si>
   <si>
-    <t>哼，哼，哼，哼啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊</t>
-  </si>
-  <si>
     <t>吃完了有奖励，吃不完有惩罚</t>
   </si>
   <si>
@@ -190,19 +187,58 @@
   </si>
   <si>
     <t>C:\UserDocuments\GamesDesign\UnityXmlRW\FMP\Assets\Resources\Xmls\Dialogues\testingDialogue.xml</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;压力马斯内&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;哼，哼，哼，哼啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;u&gt;&lt;link="0"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>野兽先辈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/link&gt;&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的会员制餐厅，就是你的所在之处了</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,150 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -379,8 +271,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,188 +299,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -597,296 +323,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -912,6 +368,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -941,13 +400,13 @@
     </xsd:schema>
   </Schema>
   <Map ID="8" Name="dialogues" RootElement="dialogues" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="characters"/>
@@ -1019,7 +478,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="functions"/>
@@ -1075,31 +534,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:J19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:J19" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" name="对话id" uniqueName="id">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id">
+      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" name="发言人id" uniqueName="speakerId" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="5">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" name="发言者姓名" uniqueName="3" dataDxfId="1"/>
-    <tableColumn id="3" name="对话内容" uniqueName="content">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" name="类型" uniqueName="type">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" name="跳转对话id" uniqueName="jumpTo" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" name="跳转预览" uniqueName="7" dataDxfId="3"/>
-    <tableColumn id="8" name="function" uniqueName="function" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" name="函数预览" uniqueName="9" dataDxfId="5"/>
-    <tableColumn id="10" name="参数" uniqueName="params">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
+      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1108,11 +574,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表8" displayName="表8" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="映射名称"/>
-    <tableColumn id="2" name="映射路径"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="映射名称"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="映射路径"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1370,34 +836,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="83.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="6.91666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="19.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="8.16666666666667" customWidth="1"/>
-    <col min="11" max="11" width="7.91666666666667" customWidth="1"/>
+    <col min="4" max="4" width="99.9140625" customWidth="1"/>
+    <col min="5" max="5" width="6.9140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1440,21 +907,21 @@
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="4" t="str">
         <f>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>1</v>
@@ -1466,21 +933,21 @@
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="5" t="str">
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -1493,20 +960,20 @@
         <v>田所浩二</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="5" t="str">
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I4" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A19" si="0">A4+1</f>
         <v>3</v>
@@ -1519,20 +986,20 @@
         <v>记者</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="5" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I5" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1544,21 +1011,21 @@
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="5" t="str">
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I6" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1571,20 +1038,20 @@
         <v>记者</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5" t="str">
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I7" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1594,7 +1061,7 @@
         <v>#N/A</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1609,11 +1076,11 @@
       </c>
       <c r="I8" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1623,7 +1090,7 @@
         <v>#N/A</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1638,11 +1105,11 @@
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1652,7 +1119,7 @@
         <v>#N/A</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1667,11 +1134,11 @@
       </c>
       <c r="I10" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1684,7 +1151,7 @@
         <v>你</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
@@ -1703,10 +1170,10 @@
         <v>Escape</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1719,12 +1186,12 @@
         <v>田所浩二</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
       <c r="G12" s="5" t="str">
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1734,10 +1201,10 @@
         <v>Jue</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1750,7 +1217,7 @@
         <v>你</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -1763,11 +1230,11 @@
       </c>
       <c r="I13" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1780,12 +1247,12 @@
         <v>你</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="5" t="str">
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1795,10 +1262,10 @@
         <v>Jue</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1809,11 +1276,11 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1823,10 +1290,10 @@
         <v>Escape</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1837,7 +1304,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
         <f>A19</f>
@@ -1855,10 +1322,10 @@
         <v>Escape</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1871,20 +1338,20 @@
         <v>旁白</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="5" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I17" s="5" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1897,20 +1364,20 @@
         <v>旁白</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="5" t="str">
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I18" s="5" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1920,14 +1387,14 @@
         <v>#N/A</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v> </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1939,18 +1406,18 @@
       <c r="J19" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1958,31 +1425,31 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="95.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="95.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABECBED5-3B18-4EEF-9470-66DFC7075906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3581F9-4750-4F03-8E9B-16E788C048DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
@@ -91,38 +90,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>对话id</t>
   </si>
   <si>
-    <t>发言人id</t>
-  </si>
-  <si>
     <t>发言者姓名</t>
   </si>
   <si>
-    <t>对话内容</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
     <t>跳转对话id</t>
   </si>
   <si>
-    <t>跳转预览</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
     <t>函数预览</t>
   </si>
   <si>
-    <t>参数</t>
-  </si>
-  <si>
     <t>24岁，事学生</t>
   </si>
   <si>
@@ -159,9 +143,6 @@
     <t>114,514</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>114</t>
   </si>
   <si>
@@ -190,11 +171,7 @@
   </si>
   <si>
     <t>&lt;color=#FF0000&gt;压力马斯内&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF0000&gt;哼，哼，哼，哼啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,26 +206,87 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的会员制餐厅，就是你的所在之处了</t>
+      <t>的</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;u&gt;&lt;link="1"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会员制餐厅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/link&gt;&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就是你的所在之处了</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;哼，哼，哼啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>发言人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转预览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,8 +323,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +353,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -323,45 +382,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输入" xfId="2" builtinId="20"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+        <family val="2"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,79 +549,12 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="characters"/>
-      <sheetName val="config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>名称</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>田所浩二</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>记者</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>你</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>旁白</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>王爷</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>奴才</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
+      <sheetName val="annotations"/>
       <sheetName val="functions"/>
       <sheetName val="config"/>
     </sheetNames>
@@ -491,6 +565,65 @@
             <v>id</v>
           </cell>
           <cell r="B1" t="str">
+            <v>名称</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>田所浩二</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>记者</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>你</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>旁白</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>王爷</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>奴才</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B1" t="str">
             <v>函数名</v>
           </cell>
         </row>
@@ -527,45 +660,43 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0" tableBorderDxfId="9" connectionId="1">
   <autoFilter ref="A1:J19" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id" dataDxfId="8">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="speakerId" name="发言人id" dataDxfId="7" dataCellStyle="输入">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@speakerId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="3" name="发言者姓名" dataDxfId="6" dataCellStyle="注释">
       <calculatedColumnFormula>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="content" name="对话内容">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@content" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="type" name="类型" dataDxfId="5">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="jumpTo" name="跳转对话id" dataDxfId="4">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@jumpTo" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="跳转预览" dataDxfId="3" dataCellStyle="注释">
       <calculatedColumnFormula>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="function" name="function" dataDxfId="2" dataCellStyle="输入">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@function" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="0">
-      <calculatedColumnFormula>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="函数预览" dataDxfId="1" dataCellStyle="注释"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="params" name="参数" dataDxfId="0" dataCellStyle="输入">
       <xmlColumnPr mapId="8" xpath="/dialogues/line/@params" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -843,575 +974,615 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="99.9140625" customWidth="1"/>
     <col min="5" max="5" width="6.9140625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="J1" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="G2" s="4" t="str">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="str">
         <f>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J2" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>32</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="G3" s="5" t="str">
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="str">
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J3" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="G4" s="5" t="str">
+      <c r="F4" s="4"/>
+      <c r="G4" s="8" t="str">
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J4" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <f t="shared" ref="A5:A19" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>记者</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="5" t="str">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J5" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="5" t="str">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8" t="str">
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J6" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>记者</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="5" t="str">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="8" t="str">
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J7" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="e">
+      <c r="C8" s="8" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <f>A11</f>
         <v>9</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="8" t="str">
         <f>IF(NOT(ISBLANK(F8)),VLOOKUP(F8,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>非常得新鲜，非常得美味</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J8" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="e">
+      <c r="C9" s="8" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <f>A14</f>
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="8" t="str">
         <f>IF(NOT(ISBLANK(F9)),VLOOKUP(F9,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>这这不能</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J9" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="e">
+      <c r="C10" s="8" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <f>A12</f>
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="8" t="str">
         <f>IF(NOT(ISBLANK(F10)),VLOOKUP(F10,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>三回啊三回</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J10" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>你</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4">
         <f>A19</f>
         <v>17</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="8" t="str">
         <f>IF(NOT(ISBLANK(F11)),VLOOKUP(F11,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>结束</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Escape</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>17</v>
+      <c r="J11" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>田所浩二</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="G12" s="5" t="str">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8" t="str">
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Jue</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>你</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4">
         <f>A19</f>
         <v>17</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="8" t="str">
         <f>IF(NOT(ISBLANK(F13)),VLOOKUP(F13,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>结束</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J13" s="2"/>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>你</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="5" t="str">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="8" t="str">
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Jue</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>21</v>
+      <c r="J14" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="e">
+      <c r="C15" s="8" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="str">
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="8" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I15" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Escape</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>23</v>
+      <c r="J15" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="e">
+      <c r="C16" s="8" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
         <f>A19</f>
         <v>17</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="8" t="str">
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v>结束</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="5" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+      <c r="I16" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Escape</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="G17" s="5" t="str">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="8" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I17" s="5" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="I17" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="5" t="str">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="8" t="str">
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I18" s="5" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="I18" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="e">
+      <c r="C19" s="8" t="e">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
         <v>-1</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="F19" s="4"/>
+      <c r="G19" s="8" t="str">
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[2]functions!$A:$B,2,FALSE)," ")</f>
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>End</v>
       </c>
-      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1433,22 +1604,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3581F9-4750-4F03-8E9B-16E788C048DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE596E9-FAA1-46AB-84CC-90E52232C49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zhuang zhong:</t>
@@ -44,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,6 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zhuang zhong:</t>
@@ -69,6 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -182,6 +186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,6 +208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,6 +230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,6 +303,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -302,16 +311,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -976,9 +988,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1436,12 +1448,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="4">
-        <f>A19</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" s="8" t="str">
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>结束</v>
+        <v>你跑出来了</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1592,12 +1603,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="95.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE596E9-FAA1-46AB-84CC-90E52232C49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA6A89E-3AA9-442C-904D-D2FD7CE41B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对话" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>对话id</t>
   </si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{i}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -443,6 +447,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -671,6 +678,14 @@
             <v>Log</v>
           </cell>
         </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Ii</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3"/>
     </sheetDataSet>
@@ -679,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J19" tableType="xml" totalsRowShown="0" tableBorderDxfId="9" connectionId="1">
-  <autoFilter ref="A1:J19" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J20" tableType="xml" totalsRowShown="0" tableBorderDxfId="9" connectionId="1">
+  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id" dataDxfId="8">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -986,11 +1001,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1051,18 +1066,21 @@
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="8" t="str">
         <f>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="H2" s="11">
+        <v>4</v>
+      </c>
       <c r="I2" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Ii</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1071,14 +1089,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>田所浩二</v>
+        <v>旁白</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
@@ -1104,10 +1122,10 @@
         <v>田所浩二</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="8" t="str">
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
@@ -1119,20 +1137,20 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A19" si="0">A4+1</f>
+        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>记者</v>
+        <v>田所浩二</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="8" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
@@ -1145,18 +1163,18 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A6:A20" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>田所浩二</v>
+        <v>记者</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
@@ -1175,14 +1193,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>记者</v>
+        <v>田所浩二</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
@@ -1200,23 +1218,21 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>记者</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <f>A11</f>
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="8" t="str">
         <f>IF(NOT(ISBLANK(F8)),VLOOKUP(F8,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>非常得新鲜，非常得美味</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I8" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1233,18 +1249,18 @@
         <v>#N/A</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <f>A14</f>
-        <v>12</v>
+        <f>A12</f>
+        <v>10</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>IF(NOT(ISBLANK(F9)),VLOOKUP(F9,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>这这不能</v>
+        <v>非常得新鲜，非常得美味</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1261,18 +1277,18 @@
         <v>#N/A</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <f>A12</f>
-        <v>10</v>
+        <f>A15</f>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>IF(NOT(ISBLANK(F10)),VLOOKUP(F10,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>三回啊三回</v>
+        <v>这这不能</v>
       </c>
       <c r="I10" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1284,34 +1300,27 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>你</v>
+      <c r="C11" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <f>A13</f>
         <v>11</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4">
-        <f>A19</f>
-        <v>17</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>IF(NOT(ISBLANK(F11)),VLOOKUP(F11,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>结束</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
+        <v>三回啊三回</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Escape</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>12</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1320,30 +1329,33 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>田所浩二</v>
+        <v>你</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <f>A20</f>
+        <v>18</v>
+      </c>
       <c r="G12" s="8" t="str">
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>结束</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Jue</v>
+        <v>Escape</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1352,27 +1364,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>你</v>
+        <v>田所浩二</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="4">
-        <f>A19</f>
-        <v>17</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="8" t="str">
         <f>IF(NOT(ISBLANK(F13)),VLOOKUP(F13,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>结束</v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Jue</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1391,20 +1406,17 @@
         <v>15</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <f>A20</f>
+        <v>18</v>
+      </c>
       <c r="G14" s="8" t="str">
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
+        <v>结束</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Jue</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>16</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1412,27 +1424,31 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
+      <c r="C15" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>你</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="4"/>
       <c r="G15" s="8" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Escape</v>
+        <v>Jue</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1447,12 +1463,10 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="4">
-        <v>15</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="8" t="str">
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>你跑出来了</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1462,35 +1476,41 @@
         <v>Escape</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>旁白</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="C17" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <f>A18</f>
+        <v>16</v>
+      </c>
       <c r="G17" s="8" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>你跑出来了</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>Escape</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1503,7 +1523,7 @@
         <v>旁白</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="8" t="str">
@@ -1515,77 +1535,102 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>旁白</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8" t="str">
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8" t="str">
+        <f>IF(NOT(ISBLANK(F20)),VLOOKUP(F20,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="3" t="str">
+      <c r="I20" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>End</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1603,7 +1648,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA6A89E-3AA9-442C-904D-D2FD7CE41B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D131E45-226A-4839-9B65-0E602165F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>对话id</t>
   </si>
@@ -284,7 +284,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{i}</t>
+    <t>{0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}，但是{1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,114</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,514</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +458,10 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,7 +470,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -482,6 +494,11 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -636,7 +653,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -686,16 +703,24 @@
             <v>Ii</v>
           </cell>
         </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Interpolate</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J20" tableType="xml" totalsRowShown="0" tableBorderDxfId="9" connectionId="1">
-  <autoFilter ref="A1:J20" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="dialogue" displayName="dialogue" ref="A1:J23" tableType="xml" totalsRowShown="0" tableBorderDxfId="9" connectionId="1">
+  <autoFilter ref="A1:J23" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="id" name="对话id" dataDxfId="8">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -1001,11 +1026,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1044,7 @@
     <col min="7" max="7" width="20.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="12" customWidth="1"/>
     <col min="11" max="11" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1051,7 +1076,7 @@
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1066,21 +1091,23 @@
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>旁白</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="10"/>
       <c r="F2" s="4"/>
       <c r="G2" s="8" t="str">
         <f>IF(NOT(ISBLANK(F2)),VLOOKUP(F2,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>4</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Ii</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1088,25 +1115,28 @@
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>旁白</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="8" t="str">
         <f>IF(NOT(ISBLANK(F3)),VLOOKUP(F3,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="H3" s="9">
+        <v>5</v>
+      </c>
       <c r="I3" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Interpolate</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1114,25 +1144,28 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
+      <c r="C4" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="8" t="str">
         <f>IF(NOT(ISBLANK(F4)),VLOOKUP(F4,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
       <c r="I4" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Interpolate</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1141,21 +1174,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>旁白</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="4"/>
       <c r="G5" s="8" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
@@ -1163,21 +1197,21 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A20" si="0">A5+1</f>
+        <f t="shared" ref="A6:A23" si="0">A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>记者</v>
+        <v>旁白</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="8" t="str">
         <f>IF(NOT(ISBLANK(F6)),VLOOKUP(F6,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
@@ -1200,10 +1234,10 @@
         <v>田所浩二</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="8" t="str">
         <f>IF(NOT(ISBLANK(F7)),VLOOKUP(F7,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
@@ -1219,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>记者</v>
+        <v>田所浩二</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="8" t="str">
         <f>IF(NOT(ISBLANK(F8)),VLOOKUP(F8,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
@@ -1244,23 +1278,21 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>记者</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <f>A12</f>
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="8" t="str">
         <f>IF(NOT(ISBLANK(F9)),VLOOKUP(F9,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>非常得新鲜，非常得美味</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I9" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1272,23 +1304,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>田所浩二</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <f>A15</f>
-        <v>13</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="8" t="str">
         <f>IF(NOT(ISBLANK(F10)),VLOOKUP(F10,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>这这不能</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I10" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1300,23 +1330,21 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>记者</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <f>A13</f>
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="8" t="str">
         <f>IF(NOT(ISBLANK(F11)),VLOOKUP(F11,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>三回啊三回</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I11" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1328,34 +1356,27 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>你</v>
+      <c r="C12" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="4">
-        <f>A20</f>
-        <v>18</v>
+        <f>A15</f>
+        <v>13</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>IF(NOT(ISBLANK(F12)),VLOOKUP(F12,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>结束</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
+        <v>非常得新鲜，非常得美味</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Escape</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>12</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1363,31 +1384,27 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>田所浩二</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <f>A18</f>
+        <v>16</v>
+      </c>
       <c r="G13" s="8" t="str">
         <f>IF(NOT(ISBLANK(F13)),VLOOKUP(F13,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
+        <v>这这不能</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Jue</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>14</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1395,24 +1412,23 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="5">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>你</v>
+      <c r="C14" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="4">
-        <f>A20</f>
-        <v>18</v>
+        <f>A16</f>
+        <v>14</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>IF(NOT(ISBLANK(F14)),VLOOKUP(F14,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>结束</v>
+        <v>三回啊三回</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
@@ -1432,23 +1448,26 @@
         <v>你</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <f>A23</f>
+        <v>21</v>
+      </c>
       <c r="G15" s="8" t="str">
         <f>IF(NOT(ISBLANK(F15)),VLOOKUP(F15,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>结束</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Jue</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>16</v>
+        <v>Escape</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1456,27 +1475,31 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>田所浩二</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="8" t="str">
         <f>IF(NOT(ISBLANK(F16)),VLOOKUP(F16,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Escape</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>17</v>
+        <v>Jue</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1484,30 +1507,28 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="e">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
+      <c r="C17" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>你</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="4">
-        <f>A18</f>
-        <v>16</v>
+        <f>A23</f>
+        <v>21</v>
       </c>
       <c r="G17" s="8" t="str">
         <f>IF(NOT(ISBLANK(F17)),VLOOKUP(F17,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v>你跑出来了</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
+        <v>结束</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v>Escape</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>18</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1516,23 +1537,30 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="8" t="str">
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>旁白</v>
+        <v>你</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="4"/>
       <c r="G18" s="8" t="str">
         <f>IF(NOT(ISBLANK(F18)),VLOOKUP(F18,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
       <c r="I18" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Jue</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1540,24 +1568,27 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="5">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="str">
-        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
-        <v>旁白</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
+      <c r="C19" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8" t="str">
         <f>IF(NOT(ISBLANK(F19)),VLOOKUP(F19,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
       <c r="I19" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Escape</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1569,36 +1600,105 @@
         <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <f>A21</f>
+        <v>19</v>
+      </c>
       <c r="G20" s="8" t="str">
         <f>IF(NOT(ISBLANK(F20)),VLOOKUP(F20,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>你跑出来了</v>
       </c>
       <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v>Escape</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>旁白</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8" t="str">
+        <f>IF(NOT(ISBLANK(F21)),VLOOKUP(F21,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>旁白</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="8" t="str">
+        <f>IF(NOT(ISBLANK(F22)),VLOOKUP(F22,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="e">
+        <f>VLOOKUP(dialogue[[#This Row],[发言人id]],[1]characters!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="8" t="str">
+        <f>IF(NOT(ISBLANK(F23)),VLOOKUP(F23,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="3" t="str">
+      <c r="I23" s="3" t="str">
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>End</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -1631,6 +1731,18 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Sheets/对话测试表.xlsx
+++ b/Sheets/对话测试表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserDocuments\GamesDesign\UnityXmlRW\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D131E45-226A-4839-9B65-0E602165F80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69578A5-C85E-46F8-87F1-78CCBDA98403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -460,7 +460,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -653,7 +652,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -712,7 +711,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1030,7 +1029,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A23"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1043,7 @@
     <col min="7" max="7" width="20.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="11" customWidth="1"/>
     <col min="11" max="11" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,7 +1075,7 @@
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1106,7 +1105,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Ii</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1120,7 +1119,7 @@
         <v>#N/A</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" s="4"/>
@@ -1135,7 +1134,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Interpolate</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1149,7 +1148,7 @@
         <v>#N/A</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" s="4"/>
@@ -1164,7 +1163,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Interpolate</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1183,7 +1182,6 @@
       <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11"/>
       <c r="F5" s="4"/>
       <c r="G5" s="8" t="str">
         <f>IF(NOT(ISBLANK(F5)),VLOOKUP(F5,dialogue[[对话id]:[对话内容]],4,FALSE)," ")</f>
@@ -1197,7 +1195,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A23" si="0">A5+1</f>
+        <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="5">
@@ -1223,7 +1221,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A23" si="0">A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="5">
@@ -1466,7 +1464,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Escape</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1498,7 +1496,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Jue</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1559,7 +1557,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Jue</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1587,7 +1585,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Escape</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1618,7 +1616,7 @@
         <f>IF(NOT(ISBLANK(dialogue[[#This Row],[function]])),VLOOKUP(dialogue[[#This Row],[function]],[1]functions!$A:$B,2,FALSE)," ")</f>
         <v>Escape</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>18</v>
       </c>
     </row>
